--- a/basic_pandas_matplotlib/my_monthly_reports/report_2025_09/average_price_wighted_2025_09.xlsx
+++ b/basic_pandas_matplotlib/my_monthly_reports/report_2025_09/average_price_wighted_2025_09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>total</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>share_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,6 +475,9 @@
       <c r="D2" t="n">
         <v>14400</v>
       </c>
+      <c r="E2" t="n">
+        <v>18.32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -486,6 +494,9 @@
       <c r="D3" t="n">
         <v>16200</v>
       </c>
+      <c r="E3" t="n">
+        <v>20.61</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -502,6 +513,9 @@
       <c r="D4" t="n">
         <v>14000</v>
       </c>
+      <c r="E4" t="n">
+        <v>17.81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -518,6 +532,9 @@
       <c r="D5" t="n">
         <v>14000</v>
       </c>
+      <c r="E5" t="n">
+        <v>17.81</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -533,6 +550,9 @@
       </c>
       <c r="D6" t="n">
         <v>20000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25.45</v>
       </c>
     </row>
     <row r="7">
@@ -546,6 +566,7 @@
       <c r="D7" t="n">
         <v>78600</v>
       </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -558,6 +579,7 @@
       <c r="D8" t="n">
         <v>228</v>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
